--- a/Output/IMM_RF.xlsx
+++ b/Output/IMM_RF.xlsx
@@ -455,16 +455,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4331</v>
+        <v>4216</v>
       </c>
       <c r="C2" t="n">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>777</v>
+        <v>732</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -581,25 +581,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9897166361974405</v>
+        <v>0.9896713615023475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4790996784565916</v>
+        <v>0.4110970996216898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8538461538461538</v>
+        <v>0.8413793103448276</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8779069767441861</v>
+        <v>0.8966565349544073</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9129878438899552</v>
+        <v>0.8907549584133078</v>
       </c>
       <c r="G2" t="n">
-        <v>0.800142361311093</v>
+        <v>0.784701076605818</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9342260058095029</v>
+        <v>0.9278964271305499</v>
       </c>
     </row>
     <row r="3">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9295986263146598</v>
+        <v>0.9053038436761864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8075880758807588</v>
+        <v>0.8380462724935732</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8633333333333333</v>
+        <v>0.8261851015801355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9320987654320988</v>
+        <v>0.921875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9129878438899552</v>
+        <v>0.8907549584133078</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8831547002402127</v>
+        <v>0.8728525544374738</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9129878438899552</v>
+        <v>0.8907549584133078</v>
       </c>
     </row>
     <row r="4">
@@ -637,25 +637,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9587161040398451</v>
+        <v>0.9456095099248628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6014127144298688</v>
+        <v>0.5516074450084603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8585635359116021</v>
+        <v>0.8337129840546698</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9041916167664672</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9129878438899552</v>
+        <v>0.8907549584133078</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8307209927869458</v>
+        <v>0.8100052120197254</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9203846587490462</v>
+        <v>0.903368134774457</v>
       </c>
     </row>
     <row r="5">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4659</v>
+        <v>4657</v>
       </c>
       <c r="C5" t="n">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="D5" t="n">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="E5" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9129878438899552</v>
+        <v>0.8907549584133078</v>
       </c>
       <c r="G5" t="n">
         <v>6252</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9176658673061551</v>
+        <v>0.903277378097522</v>
       </c>
     </row>
     <row r="3">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9088729016786571</v>
+        <v>0.9152677857713829</v>
       </c>
     </row>
     <row r="4">
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9112</v>
+        <v>0.8968</v>
       </c>
     </row>
     <row r="5">
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.916</v>
+        <v>0.9032</v>
       </c>
     </row>
     <row r="6">
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9136</v>
+        <v>0.8895999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9558919907519512</v>
+        <v>0.9637471408111725</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9203846587490462</v>
+        <v>0.903368134774457</v>
       </c>
     </row>
     <row r="4">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9134677537969624</v>
+        <v>0.901629032773781</v>
       </c>
     </row>
   </sheetData>

--- a/Output/IMM_RF.xlsx
+++ b/Output/IMM_RF.xlsx
@@ -455,16 +455,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4216</v>
+        <v>4208</v>
       </c>
       <c r="C2" t="n">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -475,10 +475,10 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -581,25 +581,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9896713615023475</v>
+        <v>0.9905838041431262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4110970996216898</v>
+        <v>0.4431372549019608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8413793103448276</v>
+        <v>0.823463687150838</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8966565349544073</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8907549584133078</v>
+        <v>0.8944337811900192</v>
       </c>
       <c r="G2" t="n">
-        <v>0.784701076605818</v>
+        <v>0.7881333958513068</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9278964271305499</v>
+        <v>0.9260795547086672</v>
       </c>
     </row>
     <row r="3">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9053038436761864</v>
+        <v>0.9088552915766739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8380462724935732</v>
+        <v>0.8268292682926829</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8261851015801355</v>
+        <v>0.8356009070294784</v>
       </c>
       <c r="E3" t="n">
-        <v>0.921875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8907549584133078</v>
+        <v>0.8944337811900192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8728525544374738</v>
+        <v>0.8761547000580421</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8907549584133078</v>
+        <v>0.8944337811900192</v>
       </c>
     </row>
     <row r="4">
@@ -637,25 +637,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9456095099248628</v>
+        <v>0.9479612525343546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5516074450084603</v>
+        <v>0.5770212765957446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8337129840546698</v>
+        <v>0.8294879009566686</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9090909090909092</v>
+        <v>0.913946587537092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8907549584133078</v>
+        <v>0.8944337811900192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8100052120197254</v>
+        <v>0.817104254405965</v>
       </c>
       <c r="H4" t="n">
-        <v>0.903368134774457</v>
+        <v>0.9051263635907452</v>
       </c>
     </row>
     <row r="5">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4657</v>
+        <v>4630</v>
       </c>
       <c r="C5" t="n">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D5" t="n">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E5" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8907549584133078</v>
+        <v>0.8944337811900192</v>
       </c>
       <c r="G5" t="n">
         <v>6252</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.903277378097522</v>
+        <v>0.9024780175859313</v>
       </c>
     </row>
     <row r="3">
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9152677857713829</v>
+        <v>0.8952837729816147</v>
       </c>
     </row>
     <row r="4">
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8968</v>
+        <v>0.8992</v>
       </c>
     </row>
     <row r="5">
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9032</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="6">
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8895999999999999</v>
+        <v>0.8968</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9637471408111725</v>
+        <v>0.9643043109834503</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.903368134774457</v>
+        <v>0.9051263635907452</v>
       </c>
     </row>
     <row r="4">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.901629032773781</v>
+        <v>0.8979523581135093</v>
       </c>
     </row>
   </sheetData>
